--- a/SQL/exo/echecs.xlsx
+++ b/SQL/exo/echecs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filer-eleves2\id1965\Ludo\Enseignements\2A Remise à niveau\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ludo\Cours2A\Remise à niveau\ENSAI-2A-remise-a-niveau\SQL\exo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="4095" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="joueur" sheetId="1" r:id="rId1"/>
@@ -184,8 +184,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,9 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,23 +516,23 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -923,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
